--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,9 +474,49 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Test Student</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Test Student</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Test Student</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Test Student</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Test Student</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
   </ignoredErrors>
 </worksheet>
 </file>